--- a/src/main/webapp/assets/user/upload/Cainayhayne.xlsx
+++ b/src/main/webapp/assets/user/upload/Cainayhayne.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\.metadata\.plugins\org.eclipse.wst.server.core\tmp0\wtpwebapps\ANSV-Report\assets\user\upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="BC Tuần 4-Tháng 4_Triển khai" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -449,19 +454,18 @@
   <si>
     <t>Chưa ký PO; Đã hoàn thành giao hàng ngày 23/3/21 (theo đề xuất của BCC)</t>
   </si>
+  <si>
+    <t>Tiến độ rất chậm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -492,157 +496,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,194 +544,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1023,262 +714,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +747,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,10 +783,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,158 +813,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="10">
+    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Ledger 17 x 11 in" xfId="5"/>
+    <cellStyle name="Ledger 17 x 11 in 12" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="Normal 4" xfId="23"/>
-    <cellStyle name="60% - Accent3" xfId="24" builtinId="40"/>
-    <cellStyle name="Good" xfId="25" builtinId="26"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="27" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="28" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
-    <cellStyle name="Total" xfId="30" builtinId="25"/>
-    <cellStyle name="Bad" xfId="31" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="34"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="36" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="37" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="38" builtinId="34"/>
-    <cellStyle name="Normal 3" xfId="39"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="41" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="42" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="43" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="44" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="45" builtinId="42"/>
-    <cellStyle name="Ledger 17 x 11 in" xfId="46"/>
-    <cellStyle name="40% - Accent4" xfId="47" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="48" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="50" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="51" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="53" builtinId="52"/>
-    <cellStyle name="Ledger 17 x 11 in 12" xfId="54"/>
-    <cellStyle name="Comma 2" xfId="55"/>
-    <cellStyle name="Normal 2 2" xfId="56"/>
-    <cellStyle name="Normal 2 3" xfId="57"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 3" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1800,47 +1211,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.88888888888889" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.712962962963" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.1388888888889" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.4259259259259" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.8518518518519" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.8518518518519" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.8518518518519" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="16" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.4259259259259" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.287037037037" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.8518518518519" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.8518518518519" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.8518518518519" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.8518518518519" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.8518518518519" style="6" customWidth="1"/>
-    <col min="16" max="16" width="65.1388888888889" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.5740740740741" style="6" customWidth="1"/>
-    <col min="18" max="18" width="44.5740740740741" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.1388888888889" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" style="4" customWidth="1"/>
     <col min="20" max="16384" width="25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46.8" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="47.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2017,23 +1427,23 @@
         <v>7052983000</v>
       </c>
       <c r="P3" s="20"/>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="32" t="s">
+      <c r="R3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" spans="1:21" s="2" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2080,13 +1490,13 @@
         <v>9509640000</v>
       </c>
       <c r="P4" s="22"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="44"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
+    <row r="5" spans="1:21" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2133,13 +1543,13 @@
         <v>7064304000</v>
       </c>
       <c r="P5" s="22"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="44"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="2" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2186,13 +1596,13 @@
         <v>6354477300</v>
       </c>
       <c r="P6" s="22"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="44"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:21">
+    <row r="7" spans="1:21" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2239,11 +1649,11 @@
         <v>1758151300</v>
       </c>
       <c r="P7" s="22"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="44"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3">
@@ -2294,11 +1704,11 @@
       <c r="P8" s="19">
         <v>44240</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="36"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="44"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="2">
@@ -2349,11 +1759,11 @@
       <c r="P9" s="19">
         <v>44251</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="36"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="44"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="3">
@@ -2404,11 +1814,11 @@
       <c r="P10" s="19">
         <v>44281</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="36"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2">
@@ -2459,11 +1869,11 @@
       <c r="P11" s="19">
         <v>44303</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3">
@@ -2519,14 +1929,14 @@
       <c r="S12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="43" t="s">
+      <c r="T12" s="58" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="62.4" spans="1:21">
+    <row r="13" spans="1:21" ht="31.5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2575,17 +1985,17 @@
       <c r="P13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="44" t="s">
+      <c r="Q13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="41"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
       <c r="U13" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="234" spans="1:21">
+    <row r="14" spans="1:21" ht="78.75">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2632,23 +2042,23 @@
       <c r="P14" s="19">
         <v>44255</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="54" t="s">
+      <c r="S14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="40" t="s">
         <v>57</v>
       </c>
       <c r="U14" s="28" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="15" ht="156" spans="1:21">
+    <row r="15" spans="1:21" ht="48" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2697,21 +2107,21 @@
       <c r="P15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="44" t="s">
+      <c r="Q15" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="55" t="s">
+      <c r="R15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="34"/>
+      <c r="T15" s="40" t="s">
         <v>60</v>
       </c>
       <c r="U15" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="96.75" customHeight="1" spans="1:21">
+    <row r="16" spans="1:21" ht="229.5" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2760,23 +2170,23 @@
       <c r="P16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="54" t="s">
+      <c r="R16" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="56" t="s">
+      <c r="T16" s="41" t="s">
         <v>65</v>
       </c>
       <c r="U16" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="409.5" spans="1:21">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="315">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2825,23 +2235,23 @@
       <c r="P17" s="19">
         <v>44407</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="46" t="s">
+      <c r="R17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="57" t="s">
+      <c r="S17" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="T17" s="56" t="s">
+      <c r="T17" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="U17" s="51" t="s">
+      <c r="U17" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="140.4" spans="1:21">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="47.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2890,23 +2300,23 @@
       <c r="P18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="57" t="s">
+      <c r="R18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="T18" s="56" t="s">
+      <c r="T18" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="51" t="s">
+      <c r="U18" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="55.5" customHeight="1" spans="1:21">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="55.5" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2955,23 +2365,23 @@
       <c r="P19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="R19" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="51" t="s">
+      <c r="R19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="156" spans="1:21">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="47.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3008,23 +2418,23 @@
       <c r="P20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="Q20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="R20" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="57" t="s">
+      <c r="R20" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="T20" s="56" t="s">
+      <c r="T20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="U20" s="51" t="s">
+      <c r="U20" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:21">
+    <row r="21" spans="1:21" ht="157.5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3073,23 +2483,23 @@
       <c r="P21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="Q21" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="54" t="s">
+      <c r="R21" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T21" s="55" t="s">
+      <c r="T21" s="40" t="s">
         <v>88</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="377.25" customHeight="1" spans="1:21">
+    <row r="22" spans="1:21" ht="377.25" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3138,23 +2548,23 @@
       <c r="P22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="55" t="s">
+      <c r="T22" s="40" t="s">
         <v>93</v>
       </c>
       <c r="U22" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="51" customHeight="1" spans="1:21">
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="75.75" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3203,23 +2613,23 @@
       <c r="P23" s="20">
         <v>44240</v>
       </c>
-      <c r="Q23" s="53" t="s">
+      <c r="Q23" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="R23" s="46" t="s">
+      <c r="R23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="57" t="s">
+      <c r="S23" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T23" s="56" t="s">
+      <c r="T23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="51" t="s">
-        <v>50</v>
+      <c r="U23" s="59" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="51" customHeight="1" spans="1:21">
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="81" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3268,21 +2678,21 @@
       <c r="P24" s="20">
         <v>44240</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="46" t="s">
+      <c r="Q24" s="49"/>
+      <c r="R24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="57" t="s">
+      <c r="S24" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="T24" s="56" t="s">
+      <c r="T24" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="U24" s="51" t="s">
-        <v>50</v>
+      <c r="U24" s="59" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="62.4" spans="1:21">
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="63">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3331,23 +2741,23 @@
       <c r="P25" s="20">
         <v>44258</v>
       </c>
-      <c r="Q25" s="44" t="s">
+      <c r="Q25" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="57" t="s">
+      <c r="R25" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="T25" s="56" t="s">
+      <c r="T25" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="51" t="s">
+      <c r="U25" s="59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="62.4" spans="1:21">
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="63">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3396,23 +2806,23 @@
       <c r="P26" s="20">
         <v>44304</v>
       </c>
-      <c r="Q26" s="44" t="s">
+      <c r="Q26" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="R26" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="57" t="s">
+      <c r="R26" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="T26" s="56" t="s">
+      <c r="T26" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="U26" s="51" t="s">
+      <c r="U26" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="231" customHeight="1" spans="1:21">
+    <row r="27" spans="1:21" ht="231" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3461,23 +2871,23 @@
       <c r="P27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="Q27" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="54" t="s">
+      <c r="R27" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="T27" s="56" t="s">
+      <c r="T27" s="41" t="s">
         <v>65</v>
       </c>
       <c r="U27" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="280.8" spans="1:21">
+    <row r="28" spans="1:21" ht="94.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3526,23 +2936,23 @@
       <c r="P28" s="20">
         <v>44316</v>
       </c>
-      <c r="Q28" s="44" t="s">
+      <c r="Q28" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28" s="54" t="s">
+      <c r="R28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="T28" s="56" t="s">
+      <c r="T28" s="41" t="s">
         <v>105</v>
       </c>
       <c r="U28" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" ht="312" spans="1:21">
+    <row r="29" spans="1:21" ht="94.5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3587,19 +2997,19 @@
       <c r="P29" s="20">
         <v>44392</v>
       </c>
-      <c r="Q29" s="44" t="s">
+      <c r="Q29" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="47"/>
-      <c r="T29" s="50"/>
+      <c r="R29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="34"/>
+      <c r="T29" s="36"/>
       <c r="U29" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="133.5" customHeight="1" spans="1:21">
+    <row r="30" spans="1:21" ht="133.5" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3648,23 +3058,23 @@
       <c r="P30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="47" t="s">
+      <c r="Q30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="R30" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="47" t="s">
+      <c r="R30" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T30" s="56" t="s">
+      <c r="T30" s="41" t="s">
         <v>81</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" ht="409.5" spans="1:21">
+    <row r="31" spans="1:21" ht="173.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3713,23 +3123,23 @@
       <c r="P31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="47" t="s">
+      <c r="Q31" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="R31" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="47" t="s">
+      <c r="R31" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T31" s="52" t="s">
+      <c r="T31" s="38" t="s">
         <v>24</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" ht="109.2" spans="1:21">
+    <row r="32" spans="1:21" ht="31.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3778,23 +3188,23 @@
       <c r="P32" s="20">
         <v>44295</v>
       </c>
-      <c r="Q32" s="47" t="s">
+      <c r="Q32" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="R32" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="54" t="s">
+      <c r="R32" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="T32" s="52" t="s">
+      <c r="T32" s="38" t="s">
         <v>24</v>
       </c>
       <c r="U32" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" ht="62.4" spans="1:21">
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3841,23 +3251,23 @@
       <c r="P33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="47" t="s">
+      <c r="Q33" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="R33" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" s="52" t="s">
+      <c r="R33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="38" t="s">
         <v>24</v>
       </c>
       <c r="U33" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" ht="140.4" spans="1:21">
+    <row r="34" spans="1:21" ht="47.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3906,16 +3316,16 @@
       <c r="P34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="47" t="s">
+      <c r="Q34" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="R34" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="T34" s="52" t="s">
+      <c r="R34" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="38" t="s">
         <v>24</v>
       </c>
       <c r="U34" s="28" t="s">
@@ -3924,15 +3334,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="U3:U11"/>
     <mergeCell ref="Q3:Q11"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R3:R11"/>
     <mergeCell ref="S3:S11"/>
     <mergeCell ref="T3:T11"/>
-    <mergeCell ref="U3:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>